--- a/lota_xin/xls/pet.xlsx
+++ b/lota_xin/xls/pet.xlsx
@@ -28,7 +28,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "ID", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "ID"}</t>
         </r>
       </text>
     </comment>
@@ -106,7 +106,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "materialID", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "materialID"}</t>
         </r>
       </text>
     </comment>
@@ -211,10 +211,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -226,6 +226,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -233,67 +240,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,17 +331,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,45 +364,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,121 +378,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,30 +552,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -535,30 +559,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,6 +583,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,38 +628,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -669,6 +651,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -677,10 +677,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,133 +689,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1144,7 +1144,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I$1:I$1048576"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/lota_xin/xls/pet.xlsx
+++ b/lota_xin/xls/pet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18855" windowHeight="8475"/>
+    <workbookView windowWidth="21495" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="petTable(yes)" sheetId="1" r:id="rId1"/>
@@ -136,12 +136,51 @@
         </r>
       </text>
     </comment>
+    <comment ref="J2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">{"type":"uint32", "name" : "Attack"}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">{"type":"uint32", "name" : "Crit"}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">{"type":"float", "name" : "Speed"}</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>xxx</t>
   </si>
@@ -171,6 +210,15 @@
   </si>
   <si>
     <t>进阶所需材料数</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Crit</t>
+  </si>
+  <si>
+    <t>Speed</t>
   </si>
   <si>
     <t>卷毛猫</t>
@@ -211,12 +259,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,11 +276,33 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -240,7 +310,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,70 +355,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,13 +370,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -346,6 +393,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -356,14 +418,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,187 +433,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,6 +624,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -591,48 +694,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,18 +716,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,10 +732,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -689,142 +744,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1141,10 +1199,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1160,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1188,25 +1246,34 @@
       <c r="I2" t="s">
         <v>9</v>
       </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>101110001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1">
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1">
         <v>201110001</v>
@@ -1217,25 +1284,34 @@
       <c r="I3" s="1">
         <v>80</v>
       </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>101110002</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1">
         <v>201110001</v>
@@ -1246,25 +1322,34 @@
       <c r="I4" s="1">
         <v>80</v>
       </c>
+      <c r="J4" s="2">
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>101110003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1">
         <v>201110001</v>
@@ -1275,25 +1360,34 @@
       <c r="I5" s="1">
         <v>80</v>
       </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>101110004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1">
         <v>201110001</v>
@@ -1304,25 +1398,34 @@
       <c r="I6" s="1">
         <v>80</v>
       </c>
+      <c r="J6" s="2">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>101110005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1">
         <v>201110001</v>
@@ -1333,25 +1436,34 @@
       <c r="I7" s="1">
         <v>80</v>
       </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>101110006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1">
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1">
         <v>201110001</v>
@@ -1362,25 +1474,34 @@
       <c r="I8" s="1">
         <v>80</v>
       </c>
+      <c r="J8" s="2">
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>101110007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1">
         <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1">
         <v>201110001</v>
@@ -1391,25 +1512,34 @@
       <c r="I9" s="1">
         <v>80</v>
       </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>101110008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D10" s="1">
         <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G10" s="1">
         <v>201110001</v>
@@ -1419,6 +1549,15 @@
       </c>
       <c r="I10" s="1">
         <v>80</v>
+      </c>
+      <c r="J10" s="2">
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/lota_xin/xls/pet.xlsx
+++ b/lota_xin/xls/pet.xlsx
@@ -28,7 +28,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "ID"}</t>
+          <t xml:space="preserve">{"type":"uint32", "name" : "ID"}</t>
         </r>
       </text>
     </comment>
@@ -175,12 +175,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="M2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">{"type":"uint32", "name" : "AttackId"}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">{"type":"uint32", "name" : "SkillId"}</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>xxx</t>
   </si>
@@ -221,19 +247,28 @@
     <t>Speed</t>
   </si>
   <si>
+    <t>AttackId</t>
+  </si>
+  <si>
+    <t>SkillId</t>
+  </si>
+  <si>
     <t>卷毛猫</t>
   </si>
   <si>
     <t>desc</t>
   </si>
   <si>
-    <t>res/spine/petRes/P001</t>
+    <t>res/spine/petRes/L010/L010</t>
+  </si>
+  <si>
+    <t>res/UI/petIcon/L010.png</t>
+  </si>
+  <si>
+    <t>西伯利亚猫</t>
   </si>
   <si>
     <t>res/UI/petIcon/PI001.png</t>
-  </si>
-  <si>
-    <t>西伯利亚猫</t>
   </si>
   <si>
     <t>金吉拉猫</t>
@@ -259,19 +294,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -732,10 +760,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -744,145 +772,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1199,18 +1224,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.375"/>
+    <col min="5" max="5" width="25.125" customWidth="1"/>
     <col min="7" max="7" width="10.375"/>
     <col min="8" max="8" width="18.375" customWidth="1"/>
     <col min="9" max="9" width="20.625" customWidth="1"/>
+    <col min="13" max="14" width="10.375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1218,7 +1245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1255,25 +1282,31 @@
       <c r="L2" t="s">
         <v>12</v>
       </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>101110001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1">
         <v>201110001</v>
@@ -1293,25 +1326,31 @@
       <c r="L3">
         <v>1.2</v>
       </c>
+      <c r="M3">
+        <v>102110001</v>
+      </c>
+      <c r="N3">
+        <v>103110001</v>
+      </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>101110002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1">
         <v>201110001</v>
@@ -1322,7 +1361,7 @@
       <c r="I4" s="1">
         <v>80</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4">
         <v>100</v>
       </c>
       <c r="K4">
@@ -1331,25 +1370,31 @@
       <c r="L4">
         <v>1.2</v>
       </c>
+      <c r="M4">
+        <v>102110002</v>
+      </c>
+      <c r="N4">
+        <v>103110002</v>
+      </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>101110003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1">
         <v>201110001</v>
@@ -1369,25 +1414,31 @@
       <c r="L5">
         <v>1.2</v>
       </c>
+      <c r="M5">
+        <v>102110003</v>
+      </c>
+      <c r="N5">
+        <v>103110003</v>
+      </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>101110004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1">
         <v>201110001</v>
@@ -1398,7 +1449,7 @@
       <c r="I6" s="1">
         <v>80</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6">
         <v>100</v>
       </c>
       <c r="K6">
@@ -1407,25 +1458,31 @@
       <c r="L6">
         <v>1.2</v>
       </c>
+      <c r="M6">
+        <v>102110004</v>
+      </c>
+      <c r="N6">
+        <v>103110004</v>
+      </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>101110005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G7" s="1">
         <v>201110001</v>
@@ -1445,25 +1502,31 @@
       <c r="L7">
         <v>1.2</v>
       </c>
+      <c r="M7">
+        <v>102110005</v>
+      </c>
+      <c r="N7">
+        <v>103110005</v>
+      </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>101110006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1">
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G8" s="1">
         <v>201110001</v>
@@ -1474,7 +1537,7 @@
       <c r="I8" s="1">
         <v>80</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8">
         <v>100</v>
       </c>
       <c r="K8">
@@ -1483,25 +1546,31 @@
       <c r="L8">
         <v>1.2</v>
       </c>
+      <c r="M8">
+        <v>102110006</v>
+      </c>
+      <c r="N8">
+        <v>103110006</v>
+      </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>101110007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1">
         <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G9" s="1">
         <v>201110001</v>
@@ -1521,25 +1590,31 @@
       <c r="L9">
         <v>1.2</v>
       </c>
+      <c r="M9">
+        <v>102110007</v>
+      </c>
+      <c r="N9">
+        <v>103110007</v>
+      </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>101110008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1">
         <v>4</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G10" s="1">
         <v>201110001</v>
@@ -1550,7 +1625,7 @@
       <c r="I10" s="1">
         <v>80</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10">
         <v>100</v>
       </c>
       <c r="K10">
@@ -1558,6 +1633,12 @@
       </c>
       <c r="L10">
         <v>1.2</v>
+      </c>
+      <c r="M10">
+        <v>102110008</v>
+      </c>
+      <c r="N10">
+        <v>103110008</v>
       </c>
     </row>
   </sheetData>

--- a/lota_xin/xls/pet.xlsx
+++ b/lota_xin/xls/pet.xlsx
@@ -67,7 +67,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "quality", "size" : 5}</t>
+          <t xml:space="preserve">{"type":"uint32", "name" : "quality"}</t>
         </r>
       </text>
     </comment>
@@ -294,9 +294,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -309,14 +309,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,112 +429,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -444,6 +437,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,6 +461,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -479,79 +587,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,54 +624,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,17 +658,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,17 +709,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,7 +722,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,145 +760,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1227,7 +1227,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/lota_xin/xls/pet.xlsx
+++ b/lota_xin/xls/pet.xlsx
@@ -259,7 +259,7 @@
     <t>desc</t>
   </si>
   <si>
-    <t>res/spine/petRes/L010/L010</t>
+    <t>res/spine/petRes/cat_01/cat_01</t>
   </si>
   <si>
     <t>res/UI/petIcon/L010.png</t>
@@ -294,10 +294,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -309,7 +309,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,6 +323,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -331,6 +390,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -340,14 +422,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,67 +430,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -436,21 +451,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -461,127 +461,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,48 +642,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -652,30 +652,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -727,6 +703,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -741,17 +752,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -760,10 +760,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -772,19 +772,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -793,112 +793,112 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1227,7 +1227,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/lota_xin/xls/pet.xlsx
+++ b/lota_xin/xls/pet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="8685"/>
+    <workbookView windowWidth="28695" windowHeight="13605"/>
   </bookViews>
   <sheets>
     <sheet name="petTable(yes)" sheetId="1" r:id="rId1"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>xxx</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>西伯利亚猫</t>
+  </si>
+  <si>
+    <t>res/spine/petRes/cat_02/cat_02</t>
   </si>
   <si>
     <t>res/UI/petIcon/PI001.png</t>
@@ -295,9 +298,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -308,8 +311,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,6 +350,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -332,15 +367,60 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,27 +428,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,14 +441,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -397,60 +448,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -461,6 +464,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -474,174 +645,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,30 +673,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -703,11 +682,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,17 +723,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -760,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -772,133 +775,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1227,13 +1230,13 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.375"/>
-    <col min="5" max="5" width="25.125" customWidth="1"/>
+    <col min="5" max="5" width="72.25" customWidth="1"/>
     <col min="7" max="7" width="10.375"/>
     <col min="8" max="8" width="18.375" customWidth="1"/>
     <col min="9" max="9" width="20.625" customWidth="1"/>
@@ -1347,10 +1350,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1">
         <v>201110001</v>
@@ -1382,7 +1385,7 @@
         <v>101110003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -1394,7 +1397,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" s="1">
         <v>201110001</v>
@@ -1426,7 +1429,7 @@
         <v>101110004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
@@ -1438,7 +1441,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1">
         <v>201110001</v>
@@ -1470,7 +1473,7 @@
         <v>101110005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -1482,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1">
         <v>201110001</v>
@@ -1514,7 +1517,7 @@
         <v>101110006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -1526,7 +1529,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" s="1">
         <v>201110001</v>
@@ -1558,7 +1561,7 @@
         <v>101110007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -1570,7 +1573,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G9" s="1">
         <v>201110001</v>
@@ -1602,7 +1605,7 @@
         <v>101110008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
@@ -1614,7 +1617,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="1">
         <v>201110001</v>

--- a/lota_xin/xls/pet.xlsx
+++ b/lota_xin/xls/pet.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>xxx</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>金吉拉猫</t>
+  </si>
+  <si>
+    <t>res/spine/petRes/cat_03/cat_03</t>
   </si>
   <si>
     <t>白狮猫</t>
@@ -298,9 +301,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -308,6 +311,112 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -319,37 +428,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -359,25 +437,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -389,67 +451,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,19 +467,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -488,13 +587,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,145 +641,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,6 +658,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -676,23 +727,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,39 +758,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -763,10 +766,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,133 +778,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1230,7 +1233,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1394,7 +1397,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>21</v>
@@ -1429,7 +1432,7 @@
         <v>101110004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
@@ -1473,7 +1476,7 @@
         <v>101110005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -1517,7 +1520,7 @@
         <v>101110006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -1561,7 +1564,7 @@
         <v>101110007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -1605,7 +1608,7 @@
         <v>101110008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>

--- a/lota_xin/xls/pet.xlsx
+++ b/lota_xin/xls/pet.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>xxx</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>白狮猫</t>
+  </si>
+  <si>
+    <t>res/spine/petRes/cat_04/cat_04</t>
   </si>
   <si>
     <t>黑狮猫</t>
@@ -302,8 +305,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -314,8 +317,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,6 +356,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -344,15 +371,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,15 +387,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,19 +403,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -412,30 +447,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -443,16 +454,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -467,6 +470,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -479,13 +524,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,7 +560,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,13 +620,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,121 +638,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -658,54 +661,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -727,8 +682,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -758,6 +728,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -766,10 +769,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -778,133 +781,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1233,7 +1236,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1441,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>21</v>
@@ -1476,7 +1479,7 @@
         <v>101110005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>16</v>
@@ -1520,7 +1523,7 @@
         <v>101110006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -1564,7 +1567,7 @@
         <v>101110007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>16</v>
@@ -1608,7 +1611,7 @@
         <v>101110008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>16</v>
